--- a/Data/ROY Data/rookies_96_97.xlsx
+++ b/Data/ROY Data/rookies_96_97.xlsx
@@ -945,76 +945,76 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>830</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>28882</v>
+        <v>2802</v>
       </c>
       <c r="I2">
-        <v>5434</v>
+        <v>550</v>
       </c>
       <c r="J2">
-        <v>11515</v>
+        <v>1214</v>
       </c>
       <c r="K2">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>387</v>
+      </c>
+      <c r="N2">
         <v>519</v>
       </c>
-      <c r="M2">
-        <v>4006</v>
-      </c>
-      <c r="N2">
-        <v>4943</v>
-      </c>
       <c r="O2">
-        <v>1869</v>
+        <v>216</v>
       </c>
       <c r="P2">
-        <v>6239</v>
+        <v>555</v>
       </c>
       <c r="Q2">
-        <v>2109</v>
+        <v>175</v>
       </c>
       <c r="R2">
-        <v>820</v>
+        <v>79</v>
       </c>
       <c r="S2">
-        <v>638</v>
+        <v>79</v>
       </c>
       <c r="T2">
-        <v>2136</v>
+        <v>225</v>
       </c>
       <c r="U2">
-        <v>2324</v>
+        <v>199</v>
       </c>
       <c r="V2">
-        <v>15028</v>
+        <v>1494</v>
       </c>
       <c r="W2">
-        <v>0.472</v>
+        <v>0.453</v>
       </c>
       <c r="X2">
-        <v>0.297</v>
+        <v>0.259</v>
       </c>
       <c r="Y2">
-        <v>0.8100000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="Z2">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="AA2">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="AB2">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AC2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD2" t="s">
         <v>153</v>
@@ -1037,76 +1037,76 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1300</v>
+        <v>82</v>
       </c>
       <c r="H3">
-        <v>46344</v>
+        <v>2532</v>
       </c>
       <c r="I3">
-        <v>8567</v>
+        <v>390</v>
       </c>
       <c r="J3">
-        <v>18955</v>
+        <v>908</v>
       </c>
       <c r="K3">
-        <v>2973</v>
+        <v>117</v>
       </c>
       <c r="L3">
-        <v>7429</v>
+        <v>298</v>
       </c>
       <c r="M3">
-        <v>4398</v>
+        <v>205</v>
       </c>
       <c r="N3">
-        <v>4920</v>
+        <v>249</v>
       </c>
       <c r="O3">
-        <v>1230</v>
+        <v>97</v>
       </c>
       <c r="P3">
-        <v>5272</v>
+        <v>326</v>
       </c>
       <c r="Q3">
-        <v>4361</v>
+        <v>210</v>
       </c>
       <c r="R3">
-        <v>1451</v>
+        <v>75</v>
       </c>
       <c r="S3">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="T3">
-        <v>2709</v>
+        <v>149</v>
       </c>
       <c r="U3">
-        <v>2858</v>
+        <v>218</v>
       </c>
       <c r="V3">
-        <v>24505</v>
+        <v>1102</v>
       </c>
       <c r="W3">
-        <v>0.452</v>
+        <v>0.43</v>
       </c>
       <c r="X3">
-        <v>0.4</v>
+        <v>0.393</v>
       </c>
       <c r="Y3">
-        <v>0.894</v>
+        <v>0.823</v>
       </c>
       <c r="Z3">
-        <v>35.6</v>
+        <v>30.9</v>
       </c>
       <c r="AA3">
-        <v>18.9</v>
+        <v>13.4</v>
       </c>
       <c r="AB3">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AC3">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD3" t="s">
         <v>153</v>
@@ -1129,76 +1129,76 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>719</v>
+        <v>65</v>
       </c>
       <c r="H4">
-        <v>15946</v>
+        <v>1066</v>
       </c>
       <c r="I4">
-        <v>1996</v>
+        <v>147</v>
       </c>
       <c r="J4">
-        <v>4366</v>
+        <v>318</v>
       </c>
       <c r="K4">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="L4">
-        <v>972</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>1028</v>
+        <v>68</v>
       </c>
       <c r="N4">
-        <v>1392</v>
+        <v>99</v>
       </c>
       <c r="O4">
-        <v>583</v>
+        <v>52</v>
       </c>
       <c r="P4">
-        <v>2252</v>
+        <v>179</v>
       </c>
       <c r="Q4">
-        <v>1007</v>
+        <v>49</v>
       </c>
       <c r="R4">
-        <v>556</v>
+        <v>27</v>
       </c>
       <c r="S4">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>958</v>
+        <v>73</v>
       </c>
       <c r="U4">
-        <v>1437</v>
+        <v>113</v>
       </c>
       <c r="V4">
-        <v>5327</v>
+        <v>386</v>
       </c>
       <c r="W4">
-        <v>0.457</v>
+        <v>0.462</v>
       </c>
       <c r="X4">
-        <v>0.316</v>
+        <v>0.511</v>
       </c>
       <c r="Y4">
-        <v>0.739</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="Z4">
-        <v>22.2</v>
+        <v>16.4</v>
       </c>
       <c r="AA4">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB4">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AC4">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD4" t="s">
         <v>153</v>
@@ -1313,76 +1313,67 @@
         <v>25</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>873</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>24052</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1945</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4761</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2082</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1013</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2428</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>336</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1930</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>5290</v>
-      </c>
-      <c r="W6">
-        <v>0.409</v>
-      </c>
-      <c r="X6">
-        <v>0.393</v>
-      </c>
-      <c r="Y6">
-        <v>0.575</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>27.6</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="s">
         <v>153</v>
@@ -1494,40 +1485,40 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="I8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J8">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>13</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
         <v>15</v>
       </c>
-      <c r="N8">
-        <v>21</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="P8">
-        <v>22</v>
-      </c>
       <c r="Q8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>8</v>
@@ -1536,34 +1527,34 @@
         <v>2</v>
       </c>
       <c r="T8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U8">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="V8">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W8">
-        <v>0.381</v>
+        <v>0.4</v>
       </c>
       <c r="X8">
-        <v>0.333</v>
+        <v>0.406</v>
       </c>
       <c r="Y8">
-        <v>0.714</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Z8">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA8">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="s">
         <v>153</v>
@@ -1586,76 +1577,76 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1346</v>
+        <v>71</v>
       </c>
       <c r="H9">
-        <v>48637</v>
+        <v>1103</v>
       </c>
       <c r="I9">
-        <v>11719</v>
+        <v>176</v>
       </c>
       <c r="J9">
-        <v>26200</v>
+        <v>422</v>
       </c>
       <c r="K9">
-        <v>1827</v>
+        <v>51</v>
       </c>
       <c r="L9">
-        <v>5546</v>
+        <v>136</v>
       </c>
       <c r="M9">
-        <v>8378</v>
+        <v>136</v>
       </c>
       <c r="N9">
-        <v>10011</v>
+        <v>166</v>
       </c>
       <c r="O9">
-        <v>1499</v>
+        <v>47</v>
       </c>
       <c r="P9">
-        <v>7047</v>
+        <v>132</v>
       </c>
       <c r="Q9">
-        <v>6306</v>
+        <v>91</v>
       </c>
       <c r="R9">
-        <v>1944</v>
+        <v>49</v>
       </c>
       <c r="S9">
-        <v>640</v>
+        <v>23</v>
       </c>
       <c r="T9">
-        <v>4010</v>
+        <v>112</v>
       </c>
       <c r="U9">
-        <v>3353</v>
+        <v>102</v>
       </c>
       <c r="V9">
-        <v>33643</v>
+        <v>539</v>
       </c>
       <c r="W9">
-        <v>0.447</v>
+        <v>0.417</v>
       </c>
       <c r="X9">
-        <v>0.329</v>
+        <v>0.375</v>
       </c>
       <c r="Y9">
-        <v>0.837</v>
+        <v>0.819</v>
       </c>
       <c r="Z9">
-        <v>36.1</v>
+        <v>15.5</v>
       </c>
       <c r="AA9">
-        <v>25</v>
+        <v>7.6</v>
       </c>
       <c r="AB9">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="AC9">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="AD9" t="s">
         <v>153</v>
@@ -1678,76 +1669,76 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>973</v>
+        <v>63</v>
       </c>
       <c r="H10">
-        <v>28684</v>
+        <v>1897</v>
       </c>
       <c r="I10">
-        <v>3767</v>
+        <v>375</v>
       </c>
       <c r="J10">
-        <v>8077</v>
+        <v>778</v>
       </c>
       <c r="K10">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>1710</v>
+        <v>183</v>
       </c>
       <c r="N10">
-        <v>2551</v>
+        <v>264</v>
       </c>
       <c r="O10">
-        <v>2611</v>
+        <v>131</v>
       </c>
       <c r="P10">
-        <v>9513</v>
+        <v>394</v>
       </c>
       <c r="Q10">
-        <v>1837</v>
+        <v>97</v>
       </c>
       <c r="R10">
-        <v>967</v>
+        <v>66</v>
       </c>
       <c r="S10">
-        <v>2331</v>
+        <v>130</v>
       </c>
       <c r="T10">
-        <v>1362</v>
+        <v>134</v>
       </c>
       <c r="U10">
-        <v>2687</v>
+        <v>214</v>
       </c>
       <c r="V10">
-        <v>9262</v>
+        <v>935</v>
       </c>
       <c r="W10">
-        <v>0.466</v>
+        <v>0.482</v>
       </c>
       <c r="X10">
-        <v>0.205</v>
+        <v>0.143</v>
       </c>
       <c r="Y10">
-        <v>0.67</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="Z10">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="AA10">
-        <v>9.5</v>
+        <v>14.8</v>
       </c>
       <c r="AB10">
-        <v>9.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="AC10">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" t="s">
         <v>153</v>
@@ -1859,76 +1850,76 @@
         <v>21</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>987</v>
+        <v>72</v>
       </c>
       <c r="H12">
-        <v>24003</v>
+        <v>1052</v>
       </c>
       <c r="I12">
-        <v>2784</v>
+        <v>131</v>
       </c>
       <c r="J12">
-        <v>5595</v>
+        <v>336</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1739</v>
+        <v>107</v>
       </c>
       <c r="N12">
-        <v>2779</v>
+        <v>168</v>
       </c>
       <c r="O12">
-        <v>2723</v>
+        <v>96</v>
       </c>
       <c r="P12">
-        <v>7005</v>
+        <v>294</v>
       </c>
       <c r="Q12">
-        <v>817</v>
+        <v>43</v>
       </c>
       <c r="R12">
-        <v>330</v>
+        <v>19</v>
       </c>
       <c r="S12">
-        <v>1398</v>
+        <v>73</v>
       </c>
       <c r="T12">
-        <v>1435</v>
+        <v>84</v>
       </c>
       <c r="U12">
-        <v>2869</v>
+        <v>153</v>
       </c>
       <c r="V12">
-        <v>7309</v>
+        <v>370</v>
       </c>
       <c r="W12">
-        <v>0.498</v>
+        <v>0.39</v>
       </c>
       <c r="X12">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.626</v>
+        <v>0.637</v>
       </c>
       <c r="Z12">
-        <v>24.3</v>
+        <v>14.6</v>
       </c>
       <c r="AA12">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="AB12">
-        <v>7.1</v>
+        <v>4.1</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD12" t="s">
         <v>153</v>
@@ -1951,73 +1942,73 @@
         <v>24</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>27</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>40</v>
-      </c>
-      <c r="H13">
-        <v>154</v>
-      </c>
-      <c r="I13">
-        <v>21</v>
-      </c>
-      <c r="J13">
-        <v>59</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>12</v>
-      </c>
-      <c r="N13">
-        <v>26</v>
-      </c>
-      <c r="O13">
-        <v>30</v>
-      </c>
-      <c r="P13">
-        <v>53</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="R13">
-        <v>6</v>
-      </c>
       <c r="S13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V13">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W13">
-        <v>0.356</v>
+        <v>0.385</v>
       </c>
       <c r="Y13">
-        <v>0.462</v>
+        <v>0.45</v>
       </c>
       <c r="Z13">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="AA13">
+        <v>1.5</v>
+      </c>
+      <c r="AB13">
         <v>1.4</v>
       </c>
-      <c r="AB13">
-        <v>1.3</v>
-      </c>
       <c r="AC13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="s">
         <v>153</v>
@@ -2040,76 +2031,76 @@
         <v>28</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>3934</v>
+        <v>230</v>
       </c>
       <c r="I14">
-        <v>402</v>
+        <v>24</v>
       </c>
       <c r="J14">
-        <v>1020</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="L14">
-        <v>443</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="Q14">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="R14">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="S14">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="U14">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="V14">
-        <v>1100</v>
+        <v>65</v>
       </c>
       <c r="W14">
-        <v>0.394</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
-        <v>0.352</v>
+        <v>0.444</v>
       </c>
       <c r="Y14">
-        <v>0.787</v>
+        <v>0.625</v>
       </c>
       <c r="Z14">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="AA14">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AB14">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AC14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="s">
         <v>153</v>
@@ -2132,76 +2123,76 @@
         <v>23</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>545</v>
+        <v>61</v>
       </c>
       <c r="H15">
-        <v>11702</v>
+        <v>867</v>
       </c>
       <c r="I15">
-        <v>1874</v>
+        <v>119</v>
       </c>
       <c r="J15">
-        <v>4593</v>
+        <v>256</v>
       </c>
       <c r="K15">
-        <v>472</v>
+        <v>52</v>
       </c>
       <c r="L15">
-        <v>1376</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>737</v>
+        <v>42</v>
       </c>
       <c r="N15">
-        <v>958</v>
+        <v>51</v>
       </c>
       <c r="O15">
-        <v>349</v>
+        <v>31</v>
       </c>
       <c r="P15">
-        <v>1351</v>
+        <v>99</v>
       </c>
       <c r="Q15">
-        <v>1024</v>
+        <v>99</v>
       </c>
       <c r="R15">
-        <v>447</v>
+        <v>36</v>
       </c>
       <c r="S15">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>573</v>
+        <v>68</v>
       </c>
       <c r="U15">
-        <v>862</v>
+        <v>71</v>
       </c>
       <c r="V15">
-        <v>4957</v>
+        <v>332</v>
       </c>
       <c r="W15">
-        <v>0.408</v>
+        <v>0.465</v>
       </c>
       <c r="X15">
-        <v>0.343</v>
+        <v>0.464</v>
       </c>
       <c r="Y15">
-        <v>0.769</v>
+        <v>0.824</v>
       </c>
       <c r="Z15">
-        <v>21.5</v>
+        <v>14.2</v>
       </c>
       <c r="AA15">
-        <v>9.1</v>
+        <v>5.4</v>
       </c>
       <c r="AB15">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC15">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD15" t="s">
         <v>153</v>
@@ -2316,76 +2307,73 @@
         <v>23</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>1097</v>
+        <v>59</v>
       </c>
       <c r="I17">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>378</v>
+        <v>22</v>
       </c>
       <c r="K17">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="W17">
-        <v>0.381</v>
+        <v>0.364</v>
       </c>
       <c r="X17">
-        <v>0.343</v>
-      </c>
-      <c r="Y17">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="Z17">
-        <v>10.8</v>
+        <v>4.2</v>
       </c>
       <c r="AA17">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="AB17">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="AC17">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="s">
         <v>153</v>
@@ -2408,76 +2396,76 @@
         <v>22</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>624</v>
+      </c>
+      <c r="I18">
+        <v>56</v>
+      </c>
+      <c r="J18">
+        <v>157</v>
+      </c>
+      <c r="K18">
         <v>5</v>
       </c>
-      <c r="G18">
-        <v>201</v>
-      </c>
-      <c r="H18">
-        <v>4316</v>
-      </c>
-      <c r="I18">
-        <v>351</v>
-      </c>
-      <c r="J18">
-        <v>827</v>
-      </c>
-      <c r="K18">
-        <v>12</v>
-      </c>
       <c r="L18">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="N18">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="O18">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="P18">
-        <v>1437</v>
+        <v>214</v>
       </c>
       <c r="Q18">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="R18">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="S18">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="T18">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="U18">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="V18">
-        <v>911</v>
+        <v>151</v>
       </c>
       <c r="W18">
-        <v>0.424</v>
+        <v>0.357</v>
       </c>
       <c r="X18">
-        <v>0.4</v>
+        <v>0.357</v>
       </c>
       <c r="Y18">
-        <v>0.629</v>
+        <v>0.507</v>
       </c>
       <c r="Z18">
-        <v>21.5</v>
+        <v>15.2</v>
       </c>
       <c r="AA18">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB18">
-        <v>7.1</v>
+        <v>5.2</v>
       </c>
       <c r="AC18">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD18" t="s">
         <v>153</v>
@@ -2500,76 +2488,76 @@
         <v>22</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1287</v>
+        <v>80</v>
       </c>
       <c r="H19">
-        <v>32719</v>
+        <v>921</v>
       </c>
       <c r="I19">
-        <v>3720</v>
+        <v>104</v>
       </c>
       <c r="J19">
-        <v>9329</v>
+        <v>262</v>
       </c>
       <c r="K19">
-        <v>1248</v>
+        <v>22</v>
       </c>
       <c r="L19">
-        <v>3341</v>
+        <v>73</v>
       </c>
       <c r="M19">
-        <v>2025</v>
+        <v>79</v>
       </c>
       <c r="N19">
-        <v>2479</v>
+        <v>120</v>
       </c>
       <c r="O19">
-        <v>414</v>
+        <v>25</v>
       </c>
       <c r="P19">
-        <v>2658</v>
+        <v>97</v>
       </c>
       <c r="Q19">
-        <v>3804</v>
+        <v>119</v>
       </c>
       <c r="R19">
-        <v>1352</v>
+        <v>41</v>
       </c>
       <c r="S19">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>1473</v>
+        <v>71</v>
       </c>
       <c r="U19">
-        <v>2684</v>
+        <v>87</v>
       </c>
       <c r="V19">
-        <v>10713</v>
+        <v>309</v>
       </c>
       <c r="W19">
-        <v>0.399</v>
+        <v>0.397</v>
       </c>
       <c r="X19">
-        <v>0.374</v>
+        <v>0.301</v>
       </c>
       <c r="Y19">
-        <v>0.8169999999999999</v>
+        <v>0.658</v>
       </c>
       <c r="Z19">
-        <v>25.4</v>
+        <v>11.5</v>
       </c>
       <c r="AA19">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="AB19">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AC19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AD19" t="s">
         <v>153</v>
@@ -2592,76 +2580,73 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="H20">
-        <v>2500</v>
+        <v>949</v>
       </c>
       <c r="I20">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="J20">
-        <v>752</v>
+        <v>266</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="N20">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="O20">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="P20">
-        <v>674</v>
+        <v>249</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R20">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="S20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="T20">
+        <v>52</v>
+      </c>
+      <c r="U20">
         <v>146</v>
       </c>
-      <c r="U20">
-        <v>351</v>
-      </c>
       <c r="V20">
-        <v>835</v>
+        <v>304</v>
       </c>
       <c r="W20">
-        <v>0.422</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="Y20">
-        <v>0.668</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="Z20">
-        <v>11.1</v>
+        <v>12.7</v>
       </c>
       <c r="AA20">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AC20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="s">
         <v>153</v>
@@ -2684,19 +2669,19 @@
         <v>30</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>359</v>
+        <v>68</v>
       </c>
       <c r="H21">
-        <v>6969</v>
+        <v>1665</v>
       </c>
       <c r="I21">
-        <v>722</v>
+        <v>223</v>
       </c>
       <c r="J21">
-        <v>1504</v>
+        <v>389</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2705,49 +2690,49 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="N21">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="O21">
-        <v>597</v>
+        <v>149</v>
       </c>
       <c r="P21">
-        <v>1810</v>
+        <v>495</v>
       </c>
       <c r="Q21">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="R21">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="S21">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="T21">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="U21">
-        <v>687</v>
+        <v>158</v>
       </c>
       <c r="V21">
-        <v>1737</v>
+        <v>542</v>
       </c>
       <c r="W21">
-        <v>0.48</v>
+        <v>0.573</v>
       </c>
       <c r="Y21">
-        <v>0.677</v>
+        <v>0.696</v>
       </c>
       <c r="Z21">
-        <v>19.4</v>
+        <v>24.5</v>
       </c>
       <c r="AA21">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="AB21">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="AC21">
         <v>0.6</v>
@@ -2773,76 +2758,76 @@
         <v>23</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39</v>
+      </c>
+      <c r="H22">
+        <v>246</v>
+      </c>
+      <c r="I22">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <v>58</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <v>36</v>
+      </c>
+      <c r="R22">
+        <v>13</v>
+      </c>
+      <c r="S22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>101</v>
-      </c>
-      <c r="H22">
-        <v>931</v>
-      </c>
-      <c r="I22">
-        <v>78</v>
-      </c>
-      <c r="J22">
-        <v>227</v>
-      </c>
-      <c r="K22">
-        <v>20</v>
-      </c>
-      <c r="L22">
-        <v>61</v>
-      </c>
-      <c r="M22">
-        <v>33</v>
-      </c>
-      <c r="N22">
-        <v>67</v>
-      </c>
-      <c r="O22">
-        <v>23</v>
-      </c>
-      <c r="P22">
-        <v>82</v>
-      </c>
-      <c r="Q22">
-        <v>110</v>
-      </c>
-      <c r="R22">
-        <v>50</v>
-      </c>
-      <c r="S22">
-        <v>14</v>
-      </c>
       <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22">
+        <v>36</v>
+      </c>
+      <c r="V22">
         <v>57</v>
       </c>
-      <c r="U22">
-        <v>131</v>
-      </c>
-      <c r="V22">
-        <v>209</v>
-      </c>
       <c r="W22">
-        <v>0.344</v>
+        <v>0.379</v>
       </c>
       <c r="X22">
-        <v>0.328</v>
+        <v>0.381</v>
       </c>
       <c r="Y22">
-        <v>0.493</v>
+        <v>0.455</v>
       </c>
       <c r="Z22">
-        <v>9.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="AA22">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC22">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD22" t="s">
         <v>153</v>
@@ -2865,70 +2850,70 @@
         <v>24</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>49</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>2</v>
       </c>
-      <c r="G23">
-        <v>27</v>
-      </c>
-      <c r="H23">
-        <v>173</v>
-      </c>
-      <c r="I23">
-        <v>23</v>
-      </c>
-      <c r="J23">
-        <v>63</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
       <c r="N23">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P23">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>11</v>
+      </c>
+      <c r="V23">
+        <v>18</v>
+      </c>
+      <c r="W23">
+        <v>0.308</v>
+      </c>
+      <c r="Y23">
+        <v>0.4</v>
+      </c>
+      <c r="Z23">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA23">
         <v>3</v>
       </c>
-      <c r="T23">
-        <v>9</v>
-      </c>
-      <c r="U23">
-        <v>33</v>
-      </c>
-      <c r="V23">
-        <v>67</v>
-      </c>
-      <c r="W23">
-        <v>0.365</v>
-      </c>
-      <c r="Y23">
-        <v>0.618</v>
-      </c>
-      <c r="Z23">
-        <v>6.4</v>
-      </c>
-      <c r="AA23">
-        <v>2.5</v>
-      </c>
       <c r="AB23">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AC23">
         <v>0.3</v>
@@ -3046,76 +3031,73 @@
         <v>23</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <v>318</v>
+      </c>
+      <c r="I25">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>62</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>17</v>
+      </c>
+      <c r="N25">
+        <v>35</v>
+      </c>
+      <c r="O25">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <v>56</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+      <c r="R25">
+        <v>9</v>
+      </c>
+      <c r="S25">
         <v>8</v>
       </c>
-      <c r="G25">
-        <v>417</v>
-      </c>
-      <c r="H25">
-        <v>5178</v>
-      </c>
-      <c r="I25">
-        <v>443</v>
-      </c>
-      <c r="J25">
-        <v>856</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>16</v>
-      </c>
-      <c r="M25">
-        <v>249</v>
-      </c>
-      <c r="N25">
-        <v>504</v>
-      </c>
-      <c r="O25">
-        <v>472</v>
-      </c>
-      <c r="P25">
-        <v>963</v>
-      </c>
-      <c r="Q25">
-        <v>229</v>
-      </c>
-      <c r="R25">
-        <v>136</v>
-      </c>
-      <c r="S25">
-        <v>154</v>
-      </c>
       <c r="T25">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="U25">
-        <v>766</v>
+        <v>57</v>
       </c>
       <c r="V25">
-        <v>1139</v>
+        <v>83</v>
       </c>
       <c r="W25">
-        <v>0.518</v>
-      </c>
-      <c r="X25">
-        <v>0.25</v>
+        <v>0.532</v>
       </c>
       <c r="Y25">
-        <v>0.494</v>
+        <v>0.486</v>
       </c>
       <c r="Z25">
-        <v>12.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA25">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AB25">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AC25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD25" t="s">
         <v>153</v>
@@ -3230,76 +3212,76 @@
         <v>23</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>57</v>
+      </c>
+      <c r="H27">
+        <v>860</v>
+      </c>
+      <c r="I27">
+        <v>112</v>
+      </c>
+      <c r="J27">
+        <v>204</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>49</v>
+      </c>
+      <c r="N27">
+        <v>81</v>
+      </c>
+      <c r="O27">
+        <v>75</v>
+      </c>
+      <c r="P27">
+        <v>198</v>
+      </c>
+      <c r="Q27">
+        <v>18</v>
+      </c>
+      <c r="R27">
         <v>12</v>
       </c>
-      <c r="G27">
-        <v>709</v>
-      </c>
-      <c r="H27">
-        <v>13924</v>
-      </c>
-      <c r="I27">
-        <v>2021</v>
-      </c>
-      <c r="J27">
-        <v>4001</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>1170</v>
-      </c>
-      <c r="N27">
-        <v>1585</v>
-      </c>
-      <c r="O27">
-        <v>1087</v>
-      </c>
-      <c r="P27">
-        <v>3130</v>
-      </c>
-      <c r="Q27">
-        <v>443</v>
-      </c>
-      <c r="R27">
-        <v>185</v>
-      </c>
       <c r="S27">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="T27">
-        <v>948</v>
+        <v>57</v>
       </c>
       <c r="U27">
-        <v>1868</v>
+        <v>112</v>
       </c>
       <c r="V27">
-        <v>5212</v>
+        <v>273</v>
       </c>
       <c r="W27">
-        <v>0.505</v>
+        <v>0.549</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.738</v>
+        <v>0.605</v>
       </c>
       <c r="Z27">
-        <v>19.6</v>
+        <v>15.1</v>
       </c>
       <c r="AA27">
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
       <c r="AB27">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="AC27">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD27" t="s">
         <v>153</v>
@@ -3322,76 +3304,76 @@
         <v>24</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>641</v>
+        <v>326</v>
       </c>
       <c r="I28">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J28">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>9</v>
+      </c>
+      <c r="P28">
+        <v>31</v>
+      </c>
+      <c r="Q28">
+        <v>64</v>
+      </c>
+      <c r="R28">
         <v>16</v>
       </c>
-      <c r="N28">
-        <v>20</v>
-      </c>
-      <c r="O28">
-        <v>21</v>
-      </c>
-      <c r="P28">
-        <v>68</v>
-      </c>
-      <c r="Q28">
-        <v>117</v>
-      </c>
-      <c r="R28">
-        <v>21</v>
-      </c>
       <c r="S28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="U28">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="V28">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="W28">
-        <v>0.377</v>
+        <v>0.426</v>
       </c>
       <c r="X28">
-        <v>0.305</v>
+        <v>0.323</v>
       </c>
       <c r="Y28">
         <v>0.8</v>
       </c>
       <c r="Z28">
-        <v>8.5</v>
+        <v>11.2</v>
       </c>
       <c r="AA28">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AB28">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AC28">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AD28" t="s">
         <v>153</v>
@@ -3414,70 +3396,70 @@
         <v>26</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <v>236</v>
+      </c>
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>97</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>65</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>49</v>
-      </c>
-      <c r="H29">
-        <v>308</v>
-      </c>
-      <c r="I29">
+      <c r="P29">
+        <v>18</v>
+      </c>
+      <c r="Q29">
         <v>33</v>
       </c>
-      <c r="J29">
-        <v>121</v>
-      </c>
-      <c r="K29">
-        <v>24</v>
-      </c>
-      <c r="L29">
-        <v>83</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>10</v>
-      </c>
-      <c r="O29">
+      <c r="R29">
         <v>3</v>
-      </c>
-      <c r="P29">
-        <v>22</v>
-      </c>
-      <c r="Q29">
-        <v>38</v>
-      </c>
-      <c r="R29">
-        <v>4</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V29">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="W29">
-        <v>0.273</v>
+        <v>0.268</v>
       </c>
       <c r="X29">
-        <v>0.289</v>
+        <v>0.308</v>
       </c>
       <c r="Y29">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="Z29">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="AA29">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AB29">
         <v>0.4</v>
@@ -3506,76 +3488,76 @@
         <v>22</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1508</v>
+        <v>301</v>
       </c>
       <c r="I30">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="J30">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30">
+        <v>12</v>
+      </c>
+      <c r="M30">
         <v>18</v>
       </c>
-      <c r="M30">
-        <v>110</v>
-      </c>
       <c r="N30">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="O30">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="P30">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="Q30">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="S30">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="T30">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="U30">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="V30">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="W30">
         <v>0.416</v>
       </c>
       <c r="X30">
-        <v>0.167</v>
+        <v>0.25</v>
       </c>
       <c r="Y30">
-        <v>0.803</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="Z30">
-        <v>13.2</v>
+        <v>10.4</v>
       </c>
       <c r="AA30">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AB30">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AC30">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AD30" t="s">
         <v>153</v>
@@ -3598,76 +3580,76 @@
         <v>21</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>914</v>
+        <v>76</v>
       </c>
       <c r="H31">
-        <v>37584</v>
+        <v>3045</v>
       </c>
       <c r="I31">
-        <v>8467</v>
+        <v>625</v>
       </c>
       <c r="J31">
-        <v>19906</v>
+        <v>1504</v>
       </c>
       <c r="K31">
-        <v>1059</v>
+        <v>155</v>
       </c>
       <c r="L31">
-        <v>3383</v>
+        <v>455</v>
       </c>
       <c r="M31">
-        <v>6375</v>
+        <v>382</v>
       </c>
       <c r="N31">
-        <v>8168</v>
+        <v>544</v>
       </c>
       <c r="O31">
-        <v>745</v>
+        <v>115</v>
       </c>
       <c r="P31">
-        <v>3394</v>
+        <v>312</v>
       </c>
       <c r="Q31">
-        <v>5624</v>
+        <v>567</v>
       </c>
       <c r="R31">
-        <v>1983</v>
+        <v>157</v>
       </c>
       <c r="S31">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="T31">
-        <v>3262</v>
+        <v>337</v>
       </c>
       <c r="U31">
-        <v>1777</v>
+        <v>233</v>
       </c>
       <c r="V31">
-        <v>24368</v>
+        <v>1787</v>
       </c>
       <c r="W31">
-        <v>0.425</v>
+        <v>0.416</v>
       </c>
       <c r="X31">
-        <v>0.313</v>
+        <v>0.341</v>
       </c>
       <c r="Y31">
-        <v>0.78</v>
+        <v>0.702</v>
       </c>
       <c r="Z31">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="AA31">
-        <v>26.7</v>
+        <v>23.5</v>
       </c>
       <c r="AB31">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AC31">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="AD31" t="s">
         <v>153</v>
@@ -3690,76 +3672,76 @@
         <v>22</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G32">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>3012</v>
+      </c>
+      <c r="I32">
         <v>507</v>
       </c>
-      <c r="H32">
-        <v>16929</v>
-      </c>
-      <c r="I32">
-        <v>2779</v>
-      </c>
       <c r="J32">
-        <v>6337</v>
+        <v>1189</v>
       </c>
       <c r="K32">
-        <v>694</v>
+        <v>158</v>
       </c>
       <c r="L32">
-        <v>1838</v>
+        <v>419</v>
       </c>
       <c r="M32">
-        <v>913</v>
+        <v>175</v>
       </c>
       <c r="N32">
-        <v>1171</v>
+        <v>227</v>
       </c>
       <c r="O32">
-        <v>513</v>
+        <v>106</v>
       </c>
       <c r="P32">
-        <v>1983</v>
+        <v>319</v>
       </c>
       <c r="Q32">
-        <v>1295</v>
+        <v>249</v>
       </c>
       <c r="R32">
-        <v>811</v>
+        <v>157</v>
       </c>
       <c r="S32">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="T32">
-        <v>621</v>
+        <v>127</v>
       </c>
       <c r="U32">
-        <v>893</v>
+        <v>165</v>
       </c>
       <c r="V32">
-        <v>7165</v>
+        <v>1347</v>
       </c>
       <c r="W32">
-        <v>0.439</v>
+        <v>0.426</v>
       </c>
       <c r="X32">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="Y32">
-        <v>0.78</v>
+        <v>0.771</v>
       </c>
       <c r="Z32">
-        <v>33.4</v>
+        <v>36.7</v>
       </c>
       <c r="AA32">
-        <v>14.1</v>
+        <v>16.4</v>
       </c>
       <c r="AB32">
         <v>3.9</v>
       </c>
       <c r="AC32">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AD32" t="s">
         <v>153</v>
@@ -3782,76 +3764,73 @@
         <v>22</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>371</v>
+        <v>71</v>
       </c>
       <c r="H33">
-        <v>4566</v>
+        <v>1156</v>
       </c>
       <c r="I33">
-        <v>522</v>
+        <v>140</v>
       </c>
       <c r="J33">
-        <v>1192</v>
+        <v>275</v>
       </c>
       <c r="K33">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>62</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>130</v>
+      </c>
+      <c r="P33">
+        <v>319</v>
+      </c>
+      <c r="Q33">
+        <v>39</v>
+      </c>
+      <c r="R33">
+        <v>31</v>
+      </c>
+      <c r="S33">
         <v>58</v>
       </c>
-      <c r="M33">
-        <v>217</v>
-      </c>
-      <c r="N33">
-        <v>312</v>
-      </c>
-      <c r="O33">
-        <v>441</v>
-      </c>
-      <c r="P33">
-        <v>1160</v>
-      </c>
-      <c r="Q33">
-        <v>224</v>
-      </c>
-      <c r="R33">
-        <v>136</v>
-      </c>
-      <c r="S33">
-        <v>220</v>
-      </c>
       <c r="T33">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="U33">
-        <v>805</v>
+        <v>170</v>
       </c>
       <c r="V33">
-        <v>1276</v>
+        <v>342</v>
       </c>
       <c r="W33">
-        <v>0.438</v>
-      </c>
-      <c r="X33">
-        <v>0.259</v>
+        <v>0.509</v>
       </c>
       <c r="Y33">
-        <v>0.696</v>
+        <v>0.62</v>
       </c>
       <c r="Z33">
-        <v>12.3</v>
+        <v>16.3</v>
       </c>
       <c r="AA33">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="AB33">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="AC33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD33" t="s">
         <v>153</v>
@@ -3874,19 +3853,19 @@
         <v>23</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>525</v>
+        <v>180</v>
       </c>
       <c r="I34">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="J34">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3895,55 +3874,55 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N34">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="O34">
+        <v>16</v>
+      </c>
+      <c r="P34">
         <v>43</v>
       </c>
-      <c r="P34">
-        <v>143</v>
-      </c>
       <c r="Q34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="R34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="T34">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U34">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="V34">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="W34">
-        <v>0.472</v>
+        <v>0.551</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.554</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Z34">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="AA34">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB34">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AC34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD34" t="s">
         <v>153</v>
@@ -3966,76 +3945,76 @@
         <v>21</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="H35">
-        <v>2684</v>
+        <v>981</v>
       </c>
       <c r="I35">
-        <v>304</v>
+        <v>100</v>
       </c>
       <c r="J35">
-        <v>749</v>
+        <v>229</v>
       </c>
       <c r="K35">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L35">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="N35">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="O35">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="P35">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="Q35">
-        <v>415</v>
+        <v>155</v>
       </c>
       <c r="R35">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="S35">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="T35">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="U35">
-        <v>297</v>
+        <v>107</v>
       </c>
       <c r="V35">
-        <v>773</v>
+        <v>251</v>
       </c>
       <c r="W35">
-        <v>0.406</v>
+        <v>0.437</v>
       </c>
       <c r="X35">
-        <v>0.351</v>
+        <v>0.409</v>
       </c>
       <c r="Y35">
-        <v>0.771</v>
+        <v>0.646</v>
       </c>
       <c r="Z35">
-        <v>13.2</v>
+        <v>15.3</v>
       </c>
       <c r="AA35">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AB35">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC35">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AD35" t="s">
         <v>153</v>
@@ -4058,73 +4037,70 @@
         <v>23</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>101</v>
+      </c>
+      <c r="I36">
+        <v>15</v>
+      </c>
+      <c r="J36">
         <v>28</v>
       </c>
-      <c r="H36">
-        <v>143</v>
-      </c>
-      <c r="I36">
-        <v>23</v>
-      </c>
-      <c r="J36">
-        <v>49</v>
-      </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>18</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
         <v>11</v>
       </c>
-      <c r="N36">
-        <v>18</v>
-      </c>
-      <c r="O36">
-        <v>8</v>
-      </c>
-      <c r="P36">
-        <v>36</v>
-      </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
-      <c r="R36">
-        <v>11</v>
-      </c>
-      <c r="S36">
-        <v>8</v>
-      </c>
-      <c r="T36">
-        <v>20</v>
-      </c>
       <c r="U36">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="V36">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="W36">
-        <v>0.469</v>
-      </c>
-      <c r="X36">
-        <v>0.333</v>
+        <v>0.536</v>
       </c>
       <c r="Y36">
-        <v>0.611</v>
+        <v>0.5</v>
       </c>
       <c r="Z36">
         <v>5.1</v>
       </c>
       <c r="AA36">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AB36">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AC36">
         <v>0.2</v>
@@ -4150,76 +4126,76 @@
         <v>25</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>7470</v>
+        <v>2386</v>
       </c>
       <c r="I37">
-        <v>783</v>
+        <v>271</v>
       </c>
       <c r="J37">
-        <v>1920</v>
+        <v>615</v>
       </c>
       <c r="K37">
-        <v>399</v>
+        <v>154</v>
       </c>
       <c r="L37">
-        <v>1073</v>
+        <v>381</v>
       </c>
       <c r="M37">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="N37">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="O37">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="P37">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="Q37">
-        <v>852</v>
+        <v>303</v>
       </c>
       <c r="R37">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="S37">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>381</v>
+        <v>122</v>
       </c>
       <c r="U37">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="V37">
-        <v>2177</v>
+        <v>767</v>
       </c>
       <c r="W37">
-        <v>0.408</v>
+        <v>0.441</v>
       </c>
       <c r="X37">
-        <v>0.372</v>
+        <v>0.404</v>
       </c>
       <c r="Y37">
-        <v>0.797</v>
+        <v>0.763</v>
       </c>
       <c r="Z37">
-        <v>25.3</v>
+        <v>29.1</v>
       </c>
       <c r="AA37">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AB37">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AC37">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="AD37" t="s">
         <v>153</v>
@@ -4242,76 +4218,76 @@
         <v>19</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>846</v>
+        <v>67</v>
       </c>
       <c r="H38">
-        <v>31891</v>
+        <v>2324</v>
       </c>
       <c r="I38">
-        <v>5769</v>
+        <v>355</v>
       </c>
       <c r="J38">
-        <v>13324</v>
+        <v>871</v>
       </c>
       <c r="K38">
-        <v>991</v>
+        <v>102</v>
       </c>
       <c r="L38">
-        <v>3048</v>
+        <v>288</v>
       </c>
       <c r="M38">
-        <v>3768</v>
+        <v>245</v>
       </c>
       <c r="N38">
-        <v>4804</v>
+        <v>337</v>
       </c>
       <c r="O38">
-        <v>579</v>
+        <v>54</v>
       </c>
       <c r="P38">
-        <v>2516</v>
+        <v>184</v>
       </c>
       <c r="Q38">
-        <v>6471</v>
+        <v>522</v>
       </c>
       <c r="R38">
-        <v>1022</v>
+        <v>67</v>
       </c>
       <c r="S38">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="T38">
-        <v>2547</v>
+        <v>210</v>
       </c>
       <c r="U38">
-        <v>2014</v>
+        <v>159</v>
       </c>
       <c r="V38">
-        <v>16297</v>
+        <v>1057</v>
       </c>
       <c r="W38">
-        <v>0.433</v>
+        <v>0.408</v>
       </c>
       <c r="X38">
-        <v>0.325</v>
+        <v>0.354</v>
       </c>
       <c r="Y38">
-        <v>0.784</v>
+        <v>0.727</v>
       </c>
       <c r="Z38">
-        <v>37.7</v>
+        <v>34.7</v>
       </c>
       <c r="AA38">
-        <v>19.3</v>
+        <v>15.8</v>
       </c>
       <c r="AB38">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AC38">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD38" t="s">
         <v>153</v>
@@ -4334,76 +4310,76 @@
         <v>22</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>593</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>10374</v>
+        <v>192</v>
       </c>
       <c r="I39">
-        <v>1092</v>
+        <v>26</v>
       </c>
       <c r="J39">
-        <v>2786</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>1318</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>416</v>
+        <v>8</v>
       </c>
       <c r="N39">
-        <v>596</v>
+        <v>14</v>
       </c>
       <c r="O39">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="P39">
-        <v>1554</v>
+        <v>23</v>
       </c>
       <c r="Q39">
-        <v>670</v>
+        <v>13</v>
       </c>
       <c r="R39">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="S39">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="T39">
-        <v>520</v>
+        <v>17</v>
       </c>
       <c r="U39">
-        <v>1211</v>
+        <v>38</v>
       </c>
       <c r="V39">
-        <v>3056</v>
+        <v>64</v>
       </c>
       <c r="W39">
-        <v>0.392</v>
+        <v>0.382</v>
       </c>
       <c r="X39">
-        <v>0.346</v>
+        <v>0.286</v>
       </c>
       <c r="Y39">
-        <v>0.698</v>
+        <v>0.571</v>
       </c>
       <c r="Z39">
-        <v>17.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA39">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="AB39">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC39">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD39" t="s">
         <v>153</v>
@@ -4426,76 +4402,76 @@
         <v>23</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>109</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>32</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40">
+        <v>12</v>
+      </c>
+      <c r="O40">
         <v>4</v>
       </c>
-      <c r="G40">
-        <v>114</v>
-      </c>
-      <c r="H40">
-        <v>968</v>
-      </c>
-      <c r="I40">
-        <v>81</v>
-      </c>
-      <c r="J40">
-        <v>215</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="P40">
+        <v>22</v>
+      </c>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="R40">
         <v>3</v>
       </c>
-      <c r="M40">
-        <v>42</v>
-      </c>
-      <c r="N40">
-        <v>69</v>
-      </c>
-      <c r="O40">
-        <v>75</v>
-      </c>
-      <c r="P40">
-        <v>213</v>
-      </c>
-      <c r="Q40">
-        <v>36</v>
-      </c>
-      <c r="R40">
-        <v>24</v>
-      </c>
       <c r="S40">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="T40">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="U40">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="V40">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="W40">
-        <v>0.377</v>
+        <v>0.313</v>
       </c>
       <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.609</v>
+        <v>0.667</v>
       </c>
       <c r="Z40">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA40">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AB40">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AC40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD40" t="s">
         <v>153</v>
@@ -4518,76 +4494,76 @@
         <v>22</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>576</v>
+        <v>13</v>
       </c>
       <c r="H41">
-        <v>15927</v>
+        <v>117</v>
       </c>
       <c r="I41">
-        <v>2189</v>
+        <v>23</v>
       </c>
       <c r="J41">
-        <v>5081</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="L41">
-        <v>929</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>713</v>
+        <v>7</v>
       </c>
       <c r="N41">
-        <v>896</v>
+        <v>10</v>
       </c>
       <c r="O41">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="P41">
-        <v>1170</v>
+        <v>6</v>
       </c>
       <c r="Q41">
-        <v>2514</v>
+        <v>18</v>
       </c>
       <c r="R41">
-        <v>371</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>789</v>
+        <v>13</v>
       </c>
       <c r="U41">
-        <v>1194</v>
+        <v>16</v>
       </c>
       <c r="V41">
-        <v>5396</v>
+        <v>65</v>
       </c>
       <c r="W41">
-        <v>0.431</v>
+        <v>0.469</v>
       </c>
       <c r="X41">
-        <v>0.328</v>
+        <v>0.462</v>
       </c>
       <c r="Y41">
-        <v>0.796</v>
+        <v>0.7</v>
       </c>
       <c r="Z41">
-        <v>27.7</v>
+        <v>9</v>
       </c>
       <c r="AA41">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="AB41">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AC41">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="AD41" t="s">
         <v>153</v>
@@ -4610,76 +4586,76 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>951</v>
+        <v>348</v>
       </c>
       <c r="I42">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="J42">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>44</v>
+      </c>
+      <c r="N42">
+        <v>70</v>
+      </c>
+      <c r="O42">
+        <v>35</v>
+      </c>
+      <c r="P42">
+        <v>67</v>
+      </c>
+      <c r="Q42">
         <v>20</v>
       </c>
-      <c r="L42">
-        <v>62</v>
-      </c>
-      <c r="M42">
-        <v>95</v>
-      </c>
-      <c r="N42">
-        <v>137</v>
-      </c>
-      <c r="O42">
-        <v>81</v>
-      </c>
-      <c r="P42">
-        <v>181</v>
-      </c>
-      <c r="Q42">
-        <v>50</v>
-      </c>
       <c r="R42">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S42">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="T42">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="U42">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="V42">
-        <v>389</v>
+        <v>156</v>
       </c>
       <c r="W42">
-        <v>0.425</v>
+        <v>0.412</v>
       </c>
       <c r="X42">
-        <v>0.323</v>
+        <v>0.167</v>
       </c>
       <c r="Y42">
-        <v>0.6929999999999999</v>
+        <v>0.629</v>
       </c>
       <c r="Z42">
-        <v>11.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA42">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="AB42">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AC42">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD42" t="s">
         <v>153</v>
@@ -4702,76 +4678,76 @@
         <v>22</v>
       </c>
       <c r="F43">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>1217</v>
+        <v>65</v>
       </c>
       <c r="H43">
-        <v>38069</v>
+        <v>684</v>
       </c>
       <c r="I43">
-        <v>6321</v>
+        <v>74</v>
       </c>
       <c r="J43">
-        <v>12892</v>
+        <v>175</v>
       </c>
       <c r="K43">
-        <v>1685</v>
+        <v>23</v>
       </c>
       <c r="L43">
-        <v>3939</v>
+        <v>55</v>
       </c>
       <c r="M43">
-        <v>3060</v>
+        <v>42</v>
       </c>
       <c r="N43">
-        <v>3384</v>
+        <v>51</v>
       </c>
       <c r="O43">
-        <v>643</v>
+        <v>16</v>
       </c>
       <c r="P43">
-        <v>3642</v>
+        <v>63</v>
       </c>
       <c r="Q43">
-        <v>10335</v>
+        <v>138</v>
       </c>
       <c r="R43">
-        <v>899</v>
+        <v>20</v>
       </c>
       <c r="S43">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>3478</v>
+        <v>63</v>
       </c>
       <c r="U43">
-        <v>1982</v>
+        <v>92</v>
       </c>
       <c r="V43">
-        <v>17387</v>
+        <v>213</v>
       </c>
       <c r="W43">
-        <v>0.49</v>
+        <v>0.423</v>
       </c>
       <c r="X43">
-        <v>0.428</v>
+        <v>0.418</v>
       </c>
       <c r="Y43">
-        <v>0.904</v>
+        <v>0.824</v>
       </c>
       <c r="Z43">
-        <v>31.3</v>
+        <v>10.5</v>
       </c>
       <c r="AA43">
-        <v>14.3</v>
+        <v>3.3</v>
       </c>
       <c r="AB43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD43" t="s">
         <v>153</v>
@@ -4978,76 +4954,76 @@
         <v>23</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>445</v>
+        <v>8</v>
       </c>
       <c r="H46">
-        <v>7640</v>
+        <v>89</v>
       </c>
       <c r="I46">
-        <v>816</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>2033</v>
+        <v>22</v>
       </c>
       <c r="K46">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>406</v>
+        <v>10</v>
       </c>
       <c r="M46">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>708</v>
+        <v>5</v>
       </c>
       <c r="O46">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>868</v>
+        <v>12</v>
       </c>
       <c r="Q46">
-        <v>1233</v>
+        <v>23</v>
       </c>
       <c r="R46">
-        <v>321</v>
+        <v>4</v>
       </c>
       <c r="S46">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="U46">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="V46">
-        <v>2272</v>
+        <v>12</v>
       </c>
       <c r="W46">
-        <v>0.401</v>
+        <v>0.182</v>
       </c>
       <c r="X46">
-        <v>0.286</v>
+        <v>0.2</v>
       </c>
       <c r="Y46">
-        <v>0.74</v>
+        <v>0.4</v>
       </c>
       <c r="Z46">
-        <v>17.2</v>
+        <v>11.1</v>
       </c>
       <c r="AA46">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="AB46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC46">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD46" t="s">
         <v>153</v>
@@ -5070,76 +5046,76 @@
         <v>18</v>
       </c>
       <c r="F47">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>1011</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>27364</v>
+        <v>458</v>
       </c>
       <c r="I47">
-        <v>5144</v>
+        <v>69</v>
       </c>
       <c r="J47">
-        <v>11025</v>
+        <v>153</v>
       </c>
       <c r="K47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>3007</v>
+        <v>47</v>
       </c>
       <c r="N47">
-        <v>4208</v>
+        <v>78</v>
       </c>
       <c r="O47">
-        <v>1991</v>
+        <v>39</v>
       </c>
       <c r="P47">
-        <v>7261</v>
+        <v>124</v>
       </c>
       <c r="Q47">
-        <v>1369</v>
+        <v>8</v>
       </c>
       <c r="R47">
-        <v>470</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1820</v>
+        <v>26</v>
       </c>
       <c r="T47">
-        <v>1872</v>
+        <v>27</v>
       </c>
       <c r="U47">
-        <v>2896</v>
+        <v>46</v>
       </c>
       <c r="V47">
-        <v>13309</v>
+        <v>185</v>
       </c>
       <c r="W47">
-        <v>0.467</v>
+        <v>0.451</v>
       </c>
       <c r="X47">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>0.715</v>
+        <v>0.603</v>
       </c>
       <c r="Z47">
-        <v>27.1</v>
+        <v>10.2</v>
       </c>
       <c r="AA47">
-        <v>13.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB47">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC47">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD47" t="s">
         <v>153</v>
@@ -5254,76 +5230,76 @@
         <v>21</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="H49">
-        <v>11608</v>
+        <v>1238</v>
       </c>
       <c r="I49">
-        <v>1639</v>
+        <v>186</v>
       </c>
       <c r="J49">
-        <v>3424</v>
+        <v>423</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>716</v>
+        <v>92</v>
       </c>
       <c r="N49">
-        <v>1031</v>
+        <v>125</v>
       </c>
       <c r="O49">
-        <v>1067</v>
+        <v>105</v>
       </c>
       <c r="P49">
-        <v>2725</v>
+        <v>217</v>
       </c>
       <c r="Q49">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="R49">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="S49">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="T49">
-        <v>786</v>
+        <v>109</v>
       </c>
       <c r="U49">
-        <v>1537</v>
+        <v>216</v>
       </c>
       <c r="V49">
-        <v>3995</v>
+        <v>465</v>
       </c>
       <c r="W49">
-        <v>0.479</v>
+        <v>0.44</v>
       </c>
       <c r="X49">
-        <v>0.167</v>
+        <v>0.5</v>
       </c>
       <c r="Y49">
-        <v>0.694</v>
+        <v>0.736</v>
       </c>
       <c r="Z49">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AA49">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB49">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC49">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD49" t="s">
         <v>153</v>
@@ -5346,76 +5322,76 @@
         <v>22</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>1095</v>
+        <v>681</v>
       </c>
       <c r="I50">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="J50">
-        <v>356</v>
+        <v>182</v>
       </c>
       <c r="K50">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L50">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N50">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="O50">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="P50">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="Q50">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="R50">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S50">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T50">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="U50">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="V50">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="W50">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="X50">
-        <v>0.374</v>
+        <v>0.382</v>
       </c>
       <c r="Y50">
-        <v>0.571</v>
+        <v>0.615</v>
       </c>
       <c r="Z50">
-        <v>14.4</v>
+        <v>16.6</v>
       </c>
       <c r="AA50">
         <v>4.6</v>
       </c>
       <c r="AB50">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AC50">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD50" t="s">
         <v>153</v>
@@ -5438,76 +5414,76 @@
         <v>23</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="H51">
-        <v>2309</v>
+        <v>1848</v>
       </c>
       <c r="I51">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="J51">
-        <v>596</v>
+        <v>483</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="N51">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="O51">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="P51">
-        <v>483</v>
+        <v>386</v>
       </c>
       <c r="Q51">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R51">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S51">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="T51">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="U51">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="V51">
-        <v>652</v>
+        <v>543</v>
       </c>
       <c r="W51">
-        <v>0.483</v>
+        <v>0.505</v>
       </c>
       <c r="X51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y51">
-        <v>0.532</v>
+        <v>0.574</v>
       </c>
       <c r="Z51">
-        <v>16.9</v>
+        <v>22.5</v>
       </c>
       <c r="AA51">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB51">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="AC51">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD51" t="s">
         <v>153</v>
@@ -5530,76 +5506,76 @@
         <v>22</v>
       </c>
       <c r="F52">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>813</v>
+        <v>54</v>
       </c>
       <c r="H52">
-        <v>13404</v>
+        <v>525</v>
       </c>
       <c r="I52">
-        <v>1792</v>
+        <v>61</v>
       </c>
       <c r="J52">
-        <v>4104</v>
+        <v>128</v>
       </c>
       <c r="K52">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>1405</v>
+        <v>38</v>
       </c>
       <c r="N52">
-        <v>1892</v>
+        <v>62</v>
       </c>
       <c r="O52">
-        <v>1166</v>
+        <v>70</v>
       </c>
       <c r="P52">
-        <v>3371</v>
+        <v>164</v>
       </c>
       <c r="Q52">
-        <v>684</v>
+        <v>32</v>
       </c>
       <c r="R52">
-        <v>487</v>
+        <v>28</v>
       </c>
       <c r="S52">
-        <v>293</v>
+        <v>17</v>
       </c>
       <c r="T52">
-        <v>1059</v>
+        <v>41</v>
       </c>
       <c r="U52">
-        <v>1896</v>
+        <v>114</v>
       </c>
       <c r="V52">
-        <v>5003</v>
+        <v>160</v>
       </c>
       <c r="W52">
-        <v>0.437</v>
+        <v>0.477</v>
       </c>
       <c r="X52">
-        <v>0.177</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>0.743</v>
+        <v>0.613</v>
       </c>
       <c r="Z52">
-        <v>16.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA52">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="AB52">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="AC52">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD52" t="s">
         <v>153</v>
@@ -5622,73 +5598,73 @@
         <v>26</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H53">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>33</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>13</v>
       </c>
-      <c r="J53">
-        <v>46</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>16</v>
-      </c>
       <c r="N53">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O53">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P53">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R53">
         <v>2</v>
       </c>
       <c r="S53">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="T53">
+        <v>12</v>
+      </c>
+      <c r="U53">
         <v>17</v>
       </c>
-      <c r="U53">
-        <v>29</v>
-      </c>
       <c r="V53">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W53">
-        <v>0.283</v>
+        <v>0.364</v>
       </c>
       <c r="Y53">
-        <v>0.667</v>
+        <v>0.722</v>
       </c>
       <c r="Z53">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AA53">
+        <v>1.6</v>
+      </c>
+      <c r="AB53">
         <v>1.1</v>
       </c>
-      <c r="AB53">
-        <v>1.2</v>
-      </c>
       <c r="AC53">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD53" t="s">
         <v>153</v>
@@ -5711,19 +5687,19 @@
         <v>23</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="I54">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J54">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5732,52 +5708,49 @@
         <v>3</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>8</v>
+      </c>
+      <c r="Q54">
         <v>2</v>
       </c>
-      <c r="O54">
+      <c r="R54">
         <v>3</v>
       </c>
-      <c r="P54">
-        <v>15</v>
-      </c>
-      <c r="Q54">
-        <v>4</v>
-      </c>
-      <c r="R54">
-        <v>5</v>
-      </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V54">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="W54">
-        <v>0.412</v>
+        <v>0.391</v>
       </c>
       <c r="X54">
         <v>0.333</v>
       </c>
-      <c r="Y54">
-        <v>0.5</v>
-      </c>
       <c r="Z54">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="AA54">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AB54">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>0.3</v>
@@ -5984,73 +5957,73 @@
         <v>24</v>
       </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>16</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>4</v>
       </c>
-      <c r="G57">
-        <v>105</v>
-      </c>
-      <c r="H57">
-        <v>634</v>
-      </c>
-      <c r="I57">
-        <v>78</v>
-      </c>
-      <c r="J57">
-        <v>168</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>33</v>
-      </c>
       <c r="N57">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="O57">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="P57">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>6</v>
+      </c>
+      <c r="V57">
         <v>20</v>
       </c>
-      <c r="R57">
-        <v>14</v>
-      </c>
-      <c r="S57">
-        <v>23</v>
-      </c>
-      <c r="T57">
-        <v>36</v>
-      </c>
-      <c r="U57">
-        <v>123</v>
-      </c>
-      <c r="V57">
-        <v>189</v>
-      </c>
       <c r="W57">
-        <v>0.464</v>
+        <v>0.5</v>
       </c>
       <c r="Y57">
-        <v>0.465</v>
+        <v>0.364</v>
       </c>
       <c r="Z57">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="AA57">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AB57">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="s">
         <v>153</v>
@@ -6257,76 +6230,73 @@
         <v>24</v>
       </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
         <v>3</v>
       </c>
-      <c r="G60">
-        <v>22</v>
-      </c>
-      <c r="H60">
-        <v>227</v>
-      </c>
-      <c r="I60">
-        <v>30</v>
-      </c>
-      <c r="J60">
-        <v>84</v>
-      </c>
-      <c r="K60">
-        <v>4</v>
-      </c>
-      <c r="L60">
-        <v>21</v>
-      </c>
       <c r="M60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
         <v>3</v>
       </c>
-      <c r="T60">
-        <v>11</v>
-      </c>
       <c r="U60">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="V60">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="W60">
-        <v>0.357</v>
+        <v>0.2</v>
       </c>
       <c r="X60">
-        <v>0.19</v>
-      </c>
-      <c r="Y60">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="Z60">
-        <v>10.3</v>
+        <v>4.5</v>
       </c>
       <c r="AA60">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="AB60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="s">
         <v>153</v>
@@ -6349,73 +6319,73 @@
         <v>23</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>501</v>
+        <v>28</v>
       </c>
       <c r="H61">
-        <v>10189</v>
+        <v>759</v>
       </c>
       <c r="I61">
-        <v>1333</v>
+        <v>102</v>
       </c>
       <c r="J61">
-        <v>3400</v>
+        <v>256</v>
       </c>
       <c r="K61">
-        <v>404</v>
+        <v>28</v>
       </c>
       <c r="L61">
-        <v>1151</v>
+        <v>92</v>
       </c>
       <c r="M61">
-        <v>710</v>
+        <v>65</v>
       </c>
       <c r="N61">
-        <v>860</v>
+        <v>80</v>
       </c>
       <c r="O61">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="P61">
-        <v>1317</v>
+        <v>90</v>
       </c>
       <c r="Q61">
-        <v>1203</v>
+        <v>68</v>
       </c>
       <c r="R61">
-        <v>422</v>
+        <v>27</v>
       </c>
       <c r="S61">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="T61">
-        <v>668</v>
+        <v>66</v>
       </c>
       <c r="U61">
-        <v>959</v>
+        <v>75</v>
       </c>
       <c r="V61">
-        <v>3780</v>
+        <v>297</v>
       </c>
       <c r="W61">
-        <v>0.392</v>
+        <v>0.398</v>
       </c>
       <c r="X61">
-        <v>0.351</v>
+        <v>0.304</v>
       </c>
       <c r="Y61">
-        <v>0.826</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Z61">
-        <v>20.3</v>
+        <v>27.1</v>
       </c>
       <c r="AA61">
-        <v>7.5</v>
+        <v>10.6</v>
       </c>
       <c r="AB61">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC61">
         <v>2.4</v>
@@ -6533,76 +6503,76 @@
         <v>20</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>893</v>
+        <v>82</v>
       </c>
       <c r="H63">
-        <v>31531</v>
+        <v>2970</v>
       </c>
       <c r="I63">
-        <v>6085</v>
+        <v>576</v>
       </c>
       <c r="J63">
-        <v>14710</v>
+        <v>1354</v>
       </c>
       <c r="K63">
-        <v>1386</v>
+        <v>52</v>
       </c>
       <c r="L63">
-        <v>4264</v>
+        <v>159</v>
       </c>
       <c r="M63">
-        <v>2091</v>
+        <v>231</v>
       </c>
       <c r="N63">
-        <v>3303</v>
+        <v>366</v>
       </c>
       <c r="O63">
-        <v>1894</v>
+        <v>288</v>
       </c>
       <c r="P63">
-        <v>6891</v>
+        <v>741</v>
       </c>
       <c r="Q63">
-        <v>3170</v>
+        <v>262</v>
       </c>
       <c r="R63">
-        <v>1085</v>
+        <v>105</v>
       </c>
       <c r="S63">
-        <v>469</v>
+        <v>53</v>
       </c>
       <c r="T63">
-        <v>2504</v>
+        <v>230</v>
       </c>
       <c r="U63">
-        <v>2516</v>
+        <v>271</v>
       </c>
       <c r="V63">
-        <v>15647</v>
+        <v>1435</v>
       </c>
       <c r="W63">
-        <v>0.414</v>
+        <v>0.425</v>
       </c>
       <c r="X63">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="Y63">
-        <v>0.633</v>
+        <v>0.631</v>
       </c>
       <c r="Z63">
-        <v>35.3</v>
+        <v>36.2</v>
       </c>
       <c r="AA63">
         <v>17.5</v>
       </c>
       <c r="AB63">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AC63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AD63" t="s">
         <v>153</v>
@@ -6625,76 +6595,76 @@
         <v>20</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>445</v>
+        <v>43</v>
       </c>
       <c r="H64">
-        <v>7612</v>
+        <v>602</v>
       </c>
       <c r="I64">
-        <v>936</v>
+        <v>83</v>
       </c>
       <c r="J64">
-        <v>2026</v>
+        <v>187</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>503</v>
+        <v>48</v>
       </c>
       <c r="N64">
-        <v>798</v>
+        <v>74</v>
       </c>
       <c r="O64">
-        <v>627</v>
+        <v>47</v>
       </c>
       <c r="P64">
-        <v>2089</v>
+        <v>147</v>
       </c>
       <c r="Q64">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="R64">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="S64">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="T64">
-        <v>403</v>
+        <v>39</v>
       </c>
       <c r="U64">
-        <v>895</v>
+        <v>71</v>
       </c>
       <c r="V64">
-        <v>2376</v>
+        <v>214</v>
       </c>
       <c r="W64">
-        <v>0.462</v>
+        <v>0.444</v>
       </c>
       <c r="X64">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>0.63</v>
+        <v>0.649</v>
       </c>
       <c r="Z64">
-        <v>17.1</v>
+        <v>14</v>
       </c>
       <c r="AA64">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AB64">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC64">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD64" t="s">
         <v>153</v>
@@ -6717,76 +6687,73 @@
         <v>22</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>34</v>
+      </c>
+      <c r="H65">
+        <v>197</v>
+      </c>
+      <c r="I65">
         <v>16</v>
       </c>
-      <c r="G65">
-        <v>1088</v>
-      </c>
-      <c r="H65">
-        <v>32085</v>
-      </c>
-      <c r="I65">
-        <v>2569</v>
-      </c>
       <c r="J65">
-        <v>5421</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1109</v>
+        <v>6</v>
       </c>
       <c r="N65">
-        <v>2679</v>
+        <v>20</v>
       </c>
       <c r="O65">
-        <v>3444</v>
+        <v>25</v>
       </c>
       <c r="P65">
-        <v>10482</v>
+        <v>58</v>
       </c>
       <c r="Q65">
-        <v>1437</v>
+        <v>2</v>
       </c>
       <c r="R65">
-        <v>1369</v>
+        <v>8</v>
       </c>
       <c r="S65">
-        <v>2137</v>
+        <v>11</v>
       </c>
       <c r="T65">
-        <v>1061</v>
+        <v>18</v>
       </c>
       <c r="U65">
-        <v>2078</v>
+        <v>27</v>
       </c>
       <c r="V65">
-        <v>6254</v>
+        <v>38</v>
       </c>
       <c r="W65">
-        <v>0.474</v>
-      </c>
-      <c r="X65">
-        <v>0.137</v>
+        <v>0.348</v>
       </c>
       <c r="Y65">
-        <v>0.414</v>
+        <v>0.3</v>
       </c>
       <c r="Z65">
-        <v>29.5</v>
+        <v>5.8</v>
       </c>
       <c r="AA65">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="AB65">
-        <v>9.6</v>
+        <v>1.7</v>
       </c>
       <c r="AC65">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD65" t="s">
         <v>153</v>
@@ -6809,76 +6776,76 @@
         <v>22</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>381</v>
+        <v>68</v>
       </c>
       <c r="H66">
-        <v>6143</v>
+        <v>787</v>
       </c>
       <c r="I66">
-        <v>1152</v>
+        <v>122</v>
       </c>
       <c r="J66">
-        <v>2496</v>
+        <v>236</v>
       </c>
       <c r="K66">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="N66">
-        <v>786</v>
+        <v>110</v>
       </c>
       <c r="O66">
-        <v>328</v>
+        <v>51</v>
       </c>
       <c r="P66">
-        <v>1061</v>
+        <v>155</v>
       </c>
       <c r="Q66">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="R66">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="S66">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="T66">
-        <v>470</v>
+        <v>76</v>
       </c>
       <c r="U66">
-        <v>706</v>
+        <v>102</v>
       </c>
       <c r="V66">
-        <v>2901</v>
+        <v>325</v>
       </c>
       <c r="W66">
-        <v>0.462</v>
+        <v>0.517</v>
       </c>
       <c r="X66">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y66">
-        <v>0.74</v>
+        <v>0.718</v>
       </c>
       <c r="Z66">
-        <v>16.1</v>
+        <v>11.6</v>
       </c>
       <c r="AA66">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="AB66">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AC66">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD66" t="s">
         <v>153</v>
@@ -6901,40 +6868,40 @@
         <v>27</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H67">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="I67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J67">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K67">
         <v>12</v>
       </c>
       <c r="L67">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M67">
         <v>11</v>
       </c>
       <c r="N67">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O67">
         <v>2</v>
       </c>
       <c r="P67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q67">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R67">
         <v>11</v>
@@ -6943,34 +6910,34 @@
         <v>0</v>
       </c>
       <c r="T67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U67">
         <v>23</v>
       </c>
       <c r="V67">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W67">
+        <v>0.327</v>
+      </c>
+      <c r="X67">
         <v>0.333</v>
       </c>
-      <c r="X67">
-        <v>0.324</v>
-      </c>
       <c r="Y67">
-        <v>0.647</v>
+        <v>0.733</v>
       </c>
       <c r="Z67">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AA67">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AB67">
         <v>0.4</v>
       </c>
       <c r="AC67">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD67" t="s">
         <v>153</v>
@@ -6993,76 +6960,73 @@
         <v>23</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>33</v>
+      </c>
+      <c r="H68">
+        <v>177</v>
+      </c>
+      <c r="I68">
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>51</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
         <v>9</v>
       </c>
-      <c r="G68">
-        <v>587</v>
-      </c>
-      <c r="H68">
-        <v>12755</v>
-      </c>
-      <c r="I68">
-        <v>1425</v>
-      </c>
-      <c r="J68">
-        <v>2839</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>26</v>
-      </c>
-      <c r="M68">
-        <v>1014</v>
-      </c>
       <c r="N68">
-        <v>1573</v>
+        <v>17</v>
       </c>
       <c r="O68">
-        <v>1448</v>
+        <v>22</v>
       </c>
       <c r="P68">
-        <v>3743</v>
+        <v>50</v>
       </c>
       <c r="Q68">
-        <v>474</v>
+        <v>7</v>
       </c>
       <c r="R68">
-        <v>618</v>
+        <v>13</v>
       </c>
       <c r="S68">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="T68">
-        <v>587</v>
+        <v>13</v>
       </c>
       <c r="U68">
-        <v>1229</v>
+        <v>18</v>
       </c>
       <c r="V68">
-        <v>3865</v>
+        <v>49</v>
       </c>
       <c r="W68">
-        <v>0.502</v>
-      </c>
-      <c r="X68">
-        <v>0.038</v>
+        <v>0.392</v>
       </c>
       <c r="Y68">
-        <v>0.645</v>
+        <v>0.529</v>
       </c>
       <c r="Z68">
-        <v>21.7</v>
+        <v>5.4</v>
       </c>
       <c r="AA68">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="AB68">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD68" t="s">
         <v>153</v>
@@ -7085,76 +7049,76 @@
         <v>21</v>
       </c>
       <c r="F69">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>778</v>
+        <v>77</v>
       </c>
       <c r="H69">
-        <v>18535</v>
+        <v>1936</v>
       </c>
       <c r="I69">
-        <v>2556</v>
+        <v>236</v>
       </c>
       <c r="J69">
-        <v>5573</v>
+        <v>491</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>1077</v>
+        <v>88</v>
       </c>
       <c r="N69">
-        <v>1670</v>
+        <v>150</v>
       </c>
       <c r="O69">
-        <v>1688</v>
+        <v>206</v>
       </c>
       <c r="P69">
-        <v>4943</v>
+        <v>471</v>
       </c>
       <c r="Q69">
-        <v>622</v>
+        <v>49</v>
       </c>
       <c r="R69">
-        <v>471</v>
+        <v>48</v>
       </c>
       <c r="S69">
-        <v>572</v>
+        <v>60</v>
       </c>
       <c r="T69">
-        <v>877</v>
+        <v>79</v>
       </c>
       <c r="U69">
-        <v>2276</v>
+        <v>211</v>
       </c>
       <c r="V69">
-        <v>6191</v>
+        <v>561</v>
       </c>
       <c r="W69">
-        <v>0.459</v>
+        <v>0.481</v>
       </c>
       <c r="X69">
-        <v>0.06900000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="Y69">
-        <v>0.645</v>
+        <v>0.587</v>
       </c>
       <c r="Z69">
-        <v>23.8</v>
+        <v>25.1</v>
       </c>
       <c r="AA69">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AB69">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD69" t="s">
         <v>153</v>
